--- a/medicine/Enfance/Agnès_Mathieu-Daudé/Agnès_Mathieu-Daudé.xlsx
+++ b/medicine/Enfance/Agnès_Mathieu-Daudé/Agnès_Mathieu-Daudé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Mathieu-Daud%C3%A9</t>
+          <t>Agnès_Mathieu-Daudé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agnès Mathieu-Daudé, née en 1975 à Montpellier, est une autrice[1] et conservatrice du patrimoine[2],[3] française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agnès Mathieu-Daudé, née en 1975 à Montpellier, est une autrice et conservatrice du patrimoine, française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Mathieu-Daud%C3%A9</t>
+          <t>Agnès_Mathieu-Daudé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son premier roman, Un marin chilien, paraît en janvier 2016 chez Gallimard. Il est récompensé par le Prix littéraire des Grandes Écoles[4] et par le Prix Révélation de la Société des gens de lettres[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier roman, Un marin chilien, paraît en janvier 2016 chez Gallimard. Il est récompensé par le Prix littéraire des Grandes Écoles et par le Prix Révélation de la Société des gens de lettres. 
 Son deuxième roman, L'Ombre sur la lune paraît en août 2017. 
-Son troisième roman, La ligne Wallace, est paru en mars 2021 chez Flammarion[6]qui explore le parcours d'Alfred Wallace, par l'intermédiaire du jeune chercheur Amos, devant faire sa biographie[7].
+Son troisième roman, La ligne Wallace, est paru en mars 2021 chez Flammarionqui explore le parcours d'Alfred Wallace, par l'intermédiaire du jeune chercheur Amos, devant faire sa biographie.
 Son roman Marchands de sable paraît en 2023 chez Flammarion.
 Elle est également autrice pour la jeunesse et traductrice depuis l'anglais.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agn%C3%A8s_Mathieu-Daud%C3%A9</t>
+          <t>Agnès_Mathieu-Daudé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Un marin chilien, Gallimard, 2016, Folio, 2017
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un marin chilien, Gallimard, 2016, Folio, 2017
 L'Ombre sur la lune, Gallimard, 2017
 La Ligne Wallace, Flammarion, 2021
-Marchands de sable , Flammarion , 2023
-Livres jeunesse
-L'école des souris - Une rentrée en canoë, ill. Marc Boutavant, L'école des loisirs, coll. « Mouche », 2018[8].
+Marchands de sable , Flammarion , 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agnès_Mathieu-Daudé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Mathieu-Daud%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'école des souris - Une rentrée en canoë, ill. Marc Boutavant, L'école des loisirs, coll. « Mouche », 2018.
 L'École des souris - Par ici la sortie !, ill. Marc Boutavant, L'école des loisirs, coll. « Mouche », 2019.
 Vertical, ver génial, ill. Delphine Bournay, L'école des loisirs, coll. « Mouche », 2019.
 Dagfrid - Des brioches sur les oreilles, ill. Olivier Tallec, L'école des loisirs, coll. « Mouche », 2020.
@@ -568,41 +621,77 @@
 Londinium, 2. Sous les ailes de l'aigle, L'école des loisirs, coll. « Médium + », 2022.
 Londinium, 3. Des renards et des hommes, L'école des loisirs, coll. « Médium + », 2023.
 Esprit de famille, ill. Louis Thomas, L'école des loisirs, coll. « Mouche », 2022.
-Dagfrid - Le mal du pays, ill. Olivier Tallec, L'École des loisirs, coll. « Mouche », 2023.
-Ouvrages collectifs
-« Avenida de Kansas City », La Nouvelle Revue française, no 631, Éditions Gallimard, 2018.
+Dagfrid - Le mal du pays, ill. Olivier Tallec, L'École des loisirs, coll. « Mouche », 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agnès_Mathieu-Daudé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Mathieu-Daud%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Avenida de Kansas City », La Nouvelle Revue française, no 631, Éditions Gallimard, 2018.
 « Wayfaring Stranger », Rock Fictions, Éditions du Cherche midi, 2018.
 « Le cimetière marin », Ressacs, Antidata, 2019.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agn%C3%A8s_Mathieu-Daud%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agnès_Mathieu-Daudé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agn%C3%A8s_Mathieu-Daud%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Finaliste Prix des libraires du Québec Jeunesse 2021[9] (Catégorie hors Québec, 6-11 ans) pour Dagfrid : des brioches sur les oreilles, illustré par Olivier Tallec</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Finaliste Prix des libraires du Québec Jeunesse 2021 (Catégorie hors Québec, 6-11 ans) pour Dagfrid : des brioches sur les oreilles, illustré par Olivier Tallec</t>
         </is>
       </c>
     </row>
